--- a/email_details.xlsx
+++ b/email_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitinmittapally/DEV/Gmail Sender/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitinmittapally/DEV/gmail_sender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E926FF17-481A-2E4D-B9BA-198B5951803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC054C5E-D2BB-C34B-8ADB-73EE79D460A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{5525D96C-88BB-8342-A61E-813403F262D5}"/>
+    <workbookView xWindow="680" yWindow="860" windowWidth="28040" windowHeight="17260" xr2:uid="{5525D96C-88BB-8342-A61E-813403F262D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -43,16 +43,33 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Test Email</t>
+  </si>
+  <si>
+    <t>testmail@gmail.com</t>
+  </si>
+  <si>
+    <t>Test name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +92,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,13 +414,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEEAE00-E141-164F-8AB0-428F6B13A805}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -413,7 +437,24 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BC47AA38-27BE-6B42-8E8C-A2E8FA5F442A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>